--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H2">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>4.133094019788444</v>
+        <v>0.1088068636613333</v>
       </c>
       <c r="R2">
-        <v>37.19784617809599</v>
+        <v>0.979261772952</v>
       </c>
       <c r="S2">
-        <v>0.001791588460803508</v>
+        <v>5.046045474378937E-05</v>
       </c>
       <c r="T2">
-        <v>0.001791588460803508</v>
+        <v>5.046045474378937E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H3">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>78.16303743870176</v>
+        <v>5.290637397180443</v>
       </c>
       <c r="R3">
-        <v>703.4673369483158</v>
+        <v>47.61573657462399</v>
       </c>
       <c r="S3">
-        <v>0.03388163813019152</v>
+        <v>0.002453594929242462</v>
       </c>
       <c r="T3">
-        <v>0.03388163813019151</v>
+        <v>0.002453594929242462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H4">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
-        <v>21.79239235340189</v>
+        <v>1.475066089254222</v>
       </c>
       <c r="R4">
-        <v>196.131531180617</v>
+        <v>13.275594803288</v>
       </c>
       <c r="S4">
-        <v>0.009446433709643962</v>
+        <v>0.0006840791392773331</v>
       </c>
       <c r="T4">
-        <v>0.009446433709643961</v>
+        <v>0.0006840791392773334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N5">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q5">
-        <v>1.400272890853333</v>
+        <v>0.5446118900350001</v>
       </c>
       <c r="R5">
-        <v>12.60245601768</v>
+        <v>4.901507010315</v>
       </c>
       <c r="S5">
-        <v>0.0006069817771426387</v>
+        <v>0.0002525701293585466</v>
       </c>
       <c r="T5">
-        <v>0.0006069817771426386</v>
+        <v>0.0002525701293585466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P6">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q6">
         <v>26.48127089975333</v>
@@ -818,10 +818,10 @@
         <v>238.33143809778</v>
       </c>
       <c r="S6">
-        <v>0.01147894026708791</v>
+        <v>0.01228099888950199</v>
       </c>
       <c r="T6">
-        <v>0.01147894026708791</v>
+        <v>0.01228099888950199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q7">
-        <v>7.383160434581668</v>
+        <v>7.383160434581667</v>
       </c>
       <c r="R7">
         <v>66.448443911235</v>
       </c>
       <c r="S7">
-        <v>0.003200407485415634</v>
+        <v>0.003424026944981598</v>
       </c>
       <c r="T7">
-        <v>0.003200407485415634</v>
+        <v>0.003424026944981598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.758776</v>
       </c>
       <c r="I8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N8">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q8">
-        <v>86.06958382633245</v>
+        <v>33.47527401863734</v>
       </c>
       <c r="R8">
-        <v>774.626254436992</v>
+        <v>301.277466167736</v>
       </c>
       <c r="S8">
-        <v>0.03730891977562861</v>
+        <v>0.01552454958090736</v>
       </c>
       <c r="T8">
-        <v>0.03730891977562861</v>
+        <v>0.01552454958090737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.758776</v>
       </c>
       <c r="I9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P9">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q9">
         <v>1627.705556839825</v>
@@ -1004,10 +1004,10 @@
         <v>14649.35001155843</v>
       </c>
       <c r="S9">
-        <v>0.7055679060911484</v>
+        <v>0.7548674764009274</v>
       </c>
       <c r="T9">
-        <v>0.7055679060911484</v>
+        <v>0.7548674764009278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.758776</v>
       </c>
       <c r="I10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q10">
         <v>453.8155027340649</v>
@@ -1066,10 +1066,10 @@
         <v>4084.339524606584</v>
       </c>
       <c r="S10">
-        <v>0.1967171843029378</v>
+        <v>0.2104622435310593</v>
       </c>
       <c r="T10">
-        <v>0.1967171843029378</v>
+        <v>0.2104622435310593</v>
       </c>
     </row>
   </sheetData>
